--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2010899.111296986</v>
+        <v>-1980024.314382926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11332362.85260335</v>
+        <v>11353571.53728478</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>318.9292534207375</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>94.06821914862122</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>129.2322815216429</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.00377606262818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.5122002751354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>109.3420825492137</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>135.4904558355138</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,10 +1114,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>25.68008452176533</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,13 +1133,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>100.1913453255716</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34.7831602542068</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1294,22 +1294,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>192.6885925717419</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>67.38189607138966</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1430,13 +1430,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719892</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>14.14416275345378</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1607,25 +1607,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1667,13 +1667,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>60.94899222869533</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,25 +1844,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1901,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,25 +2081,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2138,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2248,10 +2248,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,7 +2287,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>48.25041423584378</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2327,7 +2327,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2479,22 +2479,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14416275345335</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>14.14416275345335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2798,7 +2798,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.436997393288</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2956,16 +2956,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3089,7 +3089,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277809</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.96793274293449</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3424,25 +3424,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432289</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3566,7 +3566,7 @@
         <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477345</v>
       </c>
       <c r="Y38" t="n">
         <v>387.9675521245957</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174057</v>
       </c>
       <c r="V41" t="n">
         <v>342.7550702267644</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>791.594329785565</v>
       </c>
       <c r="C2" t="n">
-        <v>449.961607123969</v>
+        <v>757.4922610093925</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388176</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E2" t="n">
-        <v>418.0922263388176</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F2" t="n">
-        <v>418.0922263388176</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,22 +4328,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4087263891149</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4489,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X4" t="n">
-        <v>466.2711264523757</v>
+        <v>733.9599953851107</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4087263891149</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>654.9113024486718</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>216.7688296320951</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>184.8994488469437</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>74.45290081743491</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>50.6258752670467</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.6258752670467</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.6258752670467</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.6258752670467</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1112.375769149668</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1112.375769149668</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1189.145706210981</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1189.145706210981</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210981</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640684</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599278</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352335</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352335</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352335</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2272.071460669352</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1909.454510603178</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1504.599056014212</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1489.496996633926</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1081.21087293358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.250870241535</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684887</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.7466171846503</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.36152745083423</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.6258752670467</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.68954842750431</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>401.2478733937166</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.5053801183834</v>
+        <v>1093.981370660652</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.486327814413</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.6258752670467</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028721</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>694.1821749533221</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1153.666042134235</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1595.92484529188</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517661</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488003</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352335</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.875942057707</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.634573355704</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2350.634573355704</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2072.201572608809</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1785.246064479239</v>
       </c>
       <c r="W7" t="n">
-        <v>679.3168054708626</v>
+        <v>1513.219660065531</v>
       </c>
       <c r="X7" t="n">
-        <v>433.9250508042751</v>
+        <v>1513.219660065531</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.5053801183834</v>
+        <v>1285.799989379639</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.3238179760524</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2217491998797</v>
+        <v>614.7581953941713</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>178.8484105686157</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1662.048924773138</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1402.826622090155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1402.826622090155</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>997.971167501188</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>982.8691081209028</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>978.6233884609602</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1605.602207829152</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1481.130666794131</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1202.697666047236</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>915.7421579176664</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>643.715753503958</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>398.3239988373705</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1424.094121422147</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>985.9516486055704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>550.0418637800149</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>481.9793424957829</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>481.9793424957829</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>80.58151111904677</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904677</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618677</v>
+        <v>775.0235620688186</v>
       </c>
       <c r="L11" t="n">
-        <v>80.16472174618677</v>
+        <v>1850.083528321678</v>
       </c>
       <c r="M11" t="n">
-        <v>492.0552635849232</v>
+        <v>3007.131363532229</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.093695193985</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764291</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597687</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556282</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309338</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493175</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366214</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683231</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617057</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.822279028091</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607401</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.393691907055</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>80.16472174618677</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>80.16472174618677</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>80.16472174618677</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>80.16472174618677</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>80.16472174618677</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>80.16472174618677</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>265.7696000193824</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.240737869171</v>
+        <v>790.3368563937629</v>
       </c>
       <c r="C13" t="n">
-        <v>595.6790263523959</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>429.8010335539186</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0430298046559</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203591</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618677</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U13" t="n">
-        <v>1991.852694483915</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.897186354346</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.870781940637</v>
+        <v>1454.966900465229</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.47902727405</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.0593565881582</v>
+        <v>982.1554751127501</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136698</v>
@@ -5346,34 +5346,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1077.292364523332</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>904.7306530065574</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>738.8526602080801</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>569.0946564588173</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>392.3876024205736</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S16" t="n">
         <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1496.530653928211</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771601</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004239</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5698,25 +5698,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5820,31 +5820,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
         <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5935,25 +5935,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2648.764836721533</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2402.885390299988</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,28 +6063,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6127,19 +6127,19 @@
         <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F25" t="n">
-        <v>282.1391483292483</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>116.5478733550759</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>116.5478733550759</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6212,28 +6212,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,28 +6300,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,25 +6543,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,7 +6704,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992527</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886283</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030271</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666405</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412728</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799766</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832281</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6871,13 +6871,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174706</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,10 +6898,10 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298638</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581786</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581786</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>1228.461808239093</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
         <v>4607.415497673521</v>
@@ -6977,7 +6977,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,31 +7008,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581786</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581786</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581786</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581786</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="Q36" t="n">
         <v>1643.633687060287</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936664</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080651</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716785</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463108</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850146</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882652</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,13 +7111,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7126,7 +7126,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7135,10 +7135,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
         <v>442.520979946312</v>
@@ -7327,28 +7327,28 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758679</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
@@ -7357,25 +7357,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239092</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581785</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581785</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581785</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="Q42" t="n">
         <v>1643.633687060287</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716797</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7573,46 +7573,46 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856853</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7801,40 +7801,40 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758679</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8055,25 +8055,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380838</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102338</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380838</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380838</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>28.49579817779886</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>285.068848434798</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>679.558304846504</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623601</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827335</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.47967502343</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437652</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10659,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.318287437651</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11133,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>112.6214335565624</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>130.6621837640363</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>195.5529622650291</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>362.0551013218981</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>160.7958207444084</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.9863699957353</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>109.3985407791395</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>54.79268646174603</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>73.62918697961807</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>124.3589898130759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>893742.9598325292</v>
+        <v>744429.6983813491</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975050.689380322</v>
+        <v>987881.8339131146</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975050.689380322</v>
+        <v>990016.4918495228</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840262.6133987613</v>
+        <v>1002634.011318627</v>
       </c>
     </row>
     <row r="6">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.1493924618</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106463</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725242</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471864</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338174</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099788</v>
+        <v>21768.74196143557</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978834</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341184</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618198</v>
+        <v>130743.3336435127</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277518</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567084</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904276</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26445,19 +26445,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567609</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
-        <v>94325.77438500365</v>
+        <v>94325.77438500366</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500365</v>
+        <v>94325.77438500368</v>
       </c>
       <c r="O4" t="n">
         <v>94325.77438500366</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500366</v>
+        <v>94325.77438500365</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295549</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710194</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
-      <c r="H5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="J5" t="n">
-        <v>77718.2386057925</v>
-      </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381058.3330587521</v>
+        <v>-332688.8809990149</v>
       </c>
       <c r="C6" t="n">
-        <v>-265385.7609790891</v>
+        <v>-310540.4747231691</v>
       </c>
       <c r="D6" t="n">
-        <v>-265385.7609790891</v>
+        <v>-250251.9160223808</v>
       </c>
       <c r="E6" t="n">
-        <v>-301683.412235297</v>
+        <v>-341536.1436352677</v>
       </c>
       <c r="F6" t="n">
-        <v>-238296.715779554</v>
+        <v>-159181.0344142179</v>
       </c>
       <c r="G6" t="n">
-        <v>-159157.8100748354</v>
+        <v>-159181.0344142179</v>
       </c>
       <c r="H6" t="n">
-        <v>-159157.8100748353</v>
+        <v>-159181.034414218</v>
       </c>
       <c r="I6" t="n">
-        <v>-159157.8100748353</v>
+        <v>-159181.034414218</v>
       </c>
       <c r="J6" t="n">
-        <v>-270172.2754198255</v>
+        <v>-270195.4997592082</v>
       </c>
       <c r="K6" t="n">
-        <v>-159157.8100748353</v>
+        <v>-212849.3614775997</v>
       </c>
       <c r="L6" t="n">
-        <v>-178853.6560949346</v>
+        <v>-187633.8297853723</v>
       </c>
       <c r="M6" t="n">
-        <v>-299199.8105089768</v>
+        <v>-307419.0898489454</v>
       </c>
       <c r="N6" t="n">
-        <v>-237490.5893845052</v>
+        <v>-169841.3891110934</v>
       </c>
       <c r="O6" t="n">
         <v>-169841.3891110934</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380838</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827335</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179795</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977313</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072303</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574106</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179795</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977313</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702085</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574104</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179795</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977313</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072303</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574106</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>172.6534501503113</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90.68589074618677</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>113.7055555982787</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.1416979164046</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.5243745049233</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>320.0949148440741</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>35.3456385660935</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.626055847806</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>329.2456520677162</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>183.083394601485</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.73205938558741</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.697685318346743e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874788</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874754</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874862</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
         <v>16.23571033874737</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380838</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102338</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380838</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380838</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>28.49579817779886</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>285.068848434798</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,19 +35261,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,28 +35410,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>679.558304846504</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623601</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827335</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.47967502343</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132075</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512934</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35808,10 +35808,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645577</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37072,10 +37072,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437652</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778284</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.318287437651</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37941,22 +37941,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467901</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778284</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38181,13 +38181,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
